--- a/database/industries/methanol/zagros/product/yearly.xlsx
+++ b/database/industries/methanol/zagros/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\methanol\zagros\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E61D975-8079-44CB-8D17-0AB6407F0D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="32">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1391/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1392/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1393/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1394/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1395/12</t>
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1396/12</t>
@@ -105,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -269,7 +285,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -281,7 +297,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -328,6 +344,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -363,6 +396,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,17 +564,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -533,8 +583,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -545,8 +600,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -557,8 +617,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -567,8 +632,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -579,8 +649,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -591,8 +666,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -601,8 +681,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -623,8 +708,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -633,124 +733,204 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>4468407</v>
+      </c>
+      <c r="F10" s="9">
+        <v>4318424</v>
+      </c>
+      <c r="G10" s="9">
+        <v>5742176</v>
+      </c>
+      <c r="H10" s="9">
+        <v>6333533</v>
+      </c>
+      <c r="I10" s="9">
+        <v>7039618</v>
+      </c>
+      <c r="J10" s="9">
         <v>6947609</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>6155314</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>5737584</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>6380734</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>5474260</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>2003802</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1940353</v>
+      </c>
+      <c r="G11" s="11">
+        <v>2688241</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2900327</v>
+      </c>
+      <c r="I11" s="11">
+        <v>3204653</v>
+      </c>
+      <c r="J11" s="11">
         <v>3118778</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>2901071</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>2737744</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>3015057</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>2514088</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>6472209</v>
+      </c>
+      <c r="F14" s="13">
+        <v>6258777</v>
+      </c>
+      <c r="G14" s="13">
+        <v>8430417</v>
+      </c>
+      <c r="H14" s="13">
+        <v>9233860</v>
+      </c>
+      <c r="I14" s="13">
+        <v>10244271</v>
+      </c>
+      <c r="J14" s="13">
         <v>10066387</v>
       </c>
-      <c r="F14" s="13">
+      <c r="K14" s="13">
         <v>9056385</v>
       </c>
-      <c r="G14" s="13">
+      <c r="L14" s="13">
         <v>8475328</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>9395791</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>7988348</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -759,8 +939,13 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -769,8 +954,13 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -779,10 +969,15 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -801,8 +996,23 @@
       <c r="I18" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -811,124 +1021,204 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>617599</v>
+      </c>
+      <c r="F20" s="9">
+        <v>571859</v>
+      </c>
+      <c r="G20" s="9">
+        <v>784653</v>
+      </c>
+      <c r="H20" s="9">
+        <v>984520</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1487268</v>
+      </c>
+      <c r="J20" s="9">
         <v>1912999</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>1934147</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>1215060</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>1258274</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>990671</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
+        <v>2052538</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1887578</v>
+      </c>
+      <c r="G22" s="9">
+        <v>2733569</v>
+      </c>
+      <c r="H22" s="9">
+        <v>2863035</v>
+      </c>
+      <c r="I22" s="9">
+        <v>3211354</v>
+      </c>
+      <c r="J22" s="9">
         <v>3106130</v>
       </c>
-      <c r="F22" s="9">
+      <c r="K22" s="9">
         <v>2867922</v>
       </c>
-      <c r="G22" s="9">
+      <c r="L22" s="9">
         <v>2818603</v>
       </c>
-      <c r="H22" s="9">
+      <c r="M22" s="9">
         <v>3015422</v>
       </c>
-      <c r="I22" s="9">
+      <c r="N22" s="9">
         <v>2447957</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
+        <v>2670137</v>
+      </c>
+      <c r="F24" s="13">
+        <v>2459437</v>
+      </c>
+      <c r="G24" s="13">
+        <v>3518222</v>
+      </c>
+      <c r="H24" s="13">
+        <v>3847555</v>
+      </c>
+      <c r="I24" s="13">
+        <v>4698622</v>
+      </c>
+      <c r="J24" s="13">
         <v>5019129</v>
       </c>
-      <c r="F24" s="13">
+      <c r="K24" s="13">
         <v>4802069</v>
       </c>
-      <c r="G24" s="13">
+      <c r="L24" s="13">
         <v>4033663</v>
       </c>
-      <c r="H24" s="13">
+      <c r="M24" s="13">
         <v>4273696</v>
       </c>
-      <c r="I24" s="13">
+      <c r="N24" s="13">
         <v>3438628</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -937,8 +1227,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -947,8 +1242,13 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -957,10 +1257,15 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -979,8 +1284,23 @@
       <c r="I28" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -989,126 +1309,206 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
+        <v>52743</v>
+      </c>
+      <c r="F30" s="9">
+        <v>98940</v>
+      </c>
+      <c r="G30" s="9">
+        <v>144694</v>
+      </c>
+      <c r="H30" s="9">
+        <v>306754</v>
+      </c>
+      <c r="I30" s="9">
+        <v>492223</v>
+      </c>
+      <c r="J30" s="9">
         <v>693094</v>
       </c>
-      <c r="F30" s="9">
+      <c r="K30" s="9">
         <v>858992</v>
       </c>
-      <c r="G30" s="9">
+      <c r="L30" s="9">
         <v>816677</v>
       </c>
-      <c r="H30" s="9">
+      <c r="M30" s="9">
         <v>1008158</v>
       </c>
-      <c r="I30" s="9">
+      <c r="N30" s="9">
         <v>793747</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="11">
-        <v>0</v>
-      </c>
-      <c r="G31" s="11">
-        <v>0</v>
-      </c>
-      <c r="H31" s="11">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <v>0</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9">
+        <v>20291190</v>
+      </c>
+      <c r="F32" s="9">
+        <v>23956448</v>
+      </c>
+      <c r="G32" s="9">
+        <v>28969240</v>
+      </c>
+      <c r="H32" s="9">
+        <v>25636936</v>
+      </c>
+      <c r="I32" s="9">
+        <v>31428618</v>
+      </c>
+      <c r="J32" s="9">
         <v>43644455</v>
       </c>
-      <c r="F32" s="9">
+      <c r="K32" s="9">
         <v>72986441</v>
       </c>
-      <c r="G32" s="9">
+      <c r="L32" s="9">
         <v>77215271</v>
       </c>
-      <c r="H32" s="9">
+      <c r="M32" s="9">
         <v>142226610</v>
       </c>
-      <c r="I32" s="9">
+      <c r="N32" s="9">
         <v>191834697</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0</v>
-      </c>
-      <c r="H33" s="11">
-        <v>0</v>
-      </c>
-      <c r="I33" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
+        <v>20343933</v>
+      </c>
+      <c r="F34" s="13">
+        <v>24055388</v>
+      </c>
+      <c r="G34" s="13">
+        <v>29113934</v>
+      </c>
+      <c r="H34" s="13">
+        <v>25943690</v>
+      </c>
+      <c r="I34" s="13">
+        <v>31920841</v>
+      </c>
+      <c r="J34" s="13">
         <v>44337549</v>
       </c>
-      <c r="F34" s="13">
+      <c r="K34" s="13">
         <v>73845433</v>
       </c>
-      <c r="G34" s="13">
+      <c r="L34" s="13">
         <v>78031948</v>
       </c>
-      <c r="H34" s="13">
+      <c r="M34" s="13">
         <v>143234768</v>
       </c>
-      <c r="I34" s="13">
+      <c r="N34" s="13">
         <v>192628444</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1117,8 +1517,13 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1127,8 +1532,13 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1137,10 +1547,15 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1159,8 +1574,23 @@
       <c r="I38" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1169,104 +1599,169 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
+        <v>85400</v>
+      </c>
+      <c r="F40" s="9">
+        <v>173015</v>
+      </c>
+      <c r="G40" s="9">
+        <v>184405</v>
+      </c>
+      <c r="H40" s="9">
+        <v>311577</v>
+      </c>
+      <c r="I40" s="9">
+        <v>330958</v>
+      </c>
+      <c r="J40" s="9">
         <v>362308</v>
       </c>
-      <c r="F40" s="9">
+      <c r="K40" s="9">
         <v>444119</v>
       </c>
-      <c r="G40" s="9">
+      <c r="L40" s="9">
         <v>672129</v>
       </c>
-      <c r="H40" s="9">
+      <c r="M40" s="9">
         <v>801223</v>
       </c>
-      <c r="I40" s="9">
+      <c r="N40" s="9">
         <v>801222</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="11">
-        <v>0</v>
-      </c>
-      <c r="G41" s="11">
-        <v>0</v>
-      </c>
-      <c r="H41" s="11">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0</v>
+      </c>
+      <c r="L41" s="11">
+        <v>0</v>
+      </c>
+      <c r="M41" s="11">
+        <v>0</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
+        <v>9885902</v>
+      </c>
+      <c r="F42" s="9">
+        <v>12691633</v>
+      </c>
+      <c r="G42" s="9">
+        <v>10597589</v>
+      </c>
+      <c r="H42" s="9">
+        <v>8954461</v>
+      </c>
+      <c r="I42" s="9">
+        <v>9786719</v>
+      </c>
+      <c r="J42" s="9">
         <v>14051072</v>
       </c>
-      <c r="F42" s="9">
+      <c r="K42" s="9">
         <v>25449242</v>
       </c>
-      <c r="G42" s="9">
+      <c r="L42" s="9">
         <v>27394873</v>
       </c>
-      <c r="H42" s="9">
+      <c r="M42" s="9">
         <v>47166403</v>
       </c>
-      <c r="I42" s="9">
+      <c r="N42" s="9">
         <v>78365223</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="11">
-        <v>0</v>
-      </c>
-      <c r="G43" s="11">
-        <v>0</v>
-      </c>
-      <c r="H43" s="11">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1275,8 +1770,13 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1285,8 +1785,13 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1295,10 +1800,15 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -1317,8 +1827,23 @@
       <c r="I47" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1327,106 +1852,171 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="9">
+        <v>19</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="9">
         <v>-91973</v>
       </c>
-      <c r="G49" s="9">
+      <c r="L49" s="9">
         <v>-85619</v>
       </c>
-      <c r="H49" s="9">
+      <c r="M49" s="9">
         <v>-107695</v>
       </c>
-      <c r="I49" s="9">
+      <c r="N49" s="9">
         <v>-146927</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="11">
-        <v>0</v>
-      </c>
-      <c r="G50" s="11">
-        <v>0</v>
-      </c>
-      <c r="H50" s="11">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0</v>
+      </c>
+      <c r="L50" s="11">
+        <v>0</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="9">
+        <v>19</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="9">
         <v>-29741217</v>
       </c>
-      <c r="G51" s="9">
+      <c r="L51" s="9">
         <v>-35297939</v>
       </c>
-      <c r="H51" s="9">
+      <c r="M51" s="9">
         <v>-61236529</v>
       </c>
-      <c r="I51" s="9">
+      <c r="N51" s="9">
         <v>-132077496</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="11">
-        <v>0</v>
-      </c>
-      <c r="G52" s="11">
-        <v>0</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="11">
+        <v>0</v>
+      </c>
+      <c r="L52" s="11">
+        <v>0</v>
+      </c>
+      <c r="M52" s="11">
+        <v>0</v>
+      </c>
+      <c r="N52" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -1434,19 +2024,34 @@
         <v>0</v>
       </c>
       <c r="F53" s="13">
+        <v>0</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0</v>
+      </c>
+      <c r="H53" s="13">
+        <v>0</v>
+      </c>
+      <c r="I53" s="13">
+        <v>0</v>
+      </c>
+      <c r="J53" s="13">
+        <v>0</v>
+      </c>
+      <c r="K53" s="13">
         <v>-29833190</v>
       </c>
-      <c r="G53" s="13">
+      <c r="L53" s="13">
         <v>-35383558</v>
       </c>
-      <c r="H53" s="13">
+      <c r="M53" s="13">
         <v>-61344224</v>
       </c>
-      <c r="I53" s="13">
+      <c r="N53" s="13">
         <v>-132224423</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1455,8 +2060,13 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1465,8 +2075,13 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1475,10 +2090,15 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1497,8 +2117,23 @@
       <c r="I57" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1507,106 +2142,171 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="9">
+        <v>19</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" s="9">
         <v>767019</v>
       </c>
-      <c r="G59" s="9">
+      <c r="L59" s="9">
         <v>731058</v>
       </c>
-      <c r="H59" s="9">
+      <c r="M59" s="9">
         <v>900463</v>
       </c>
-      <c r="I59" s="9">
+      <c r="N59" s="9">
         <v>646820</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="11">
-        <v>0</v>
-      </c>
-      <c r="H60" s="11">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="11">
+        <v>0</v>
+      </c>
+      <c r="M60" s="11">
+        <v>0</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="9">
+        <v>19</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="9">
         <v>43245224</v>
       </c>
-      <c r="G61" s="9">
+      <c r="L61" s="9">
         <v>41917332</v>
       </c>
-      <c r="H61" s="9">
+      <c r="M61" s="9">
         <v>80990081</v>
       </c>
-      <c r="I61" s="9">
+      <c r="N61" s="9">
         <v>59757201</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="11">
-        <v>0</v>
-      </c>
-      <c r="H62" s="11">
-        <v>0</v>
-      </c>
-      <c r="I62" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" s="11">
+        <v>0</v>
+      </c>
+      <c r="M62" s="11">
+        <v>0</v>
+      </c>
+      <c r="N62" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -1614,15 +2314,30 @@
         <v>0</v>
       </c>
       <c r="F63" s="13">
+        <v>0</v>
+      </c>
+      <c r="G63" s="13">
+        <v>0</v>
+      </c>
+      <c r="H63" s="13">
+        <v>0</v>
+      </c>
+      <c r="I63" s="13">
+        <v>0</v>
+      </c>
+      <c r="J63" s="13">
+        <v>0</v>
+      </c>
+      <c r="K63" s="13">
         <v>44012243</v>
       </c>
-      <c r="G63" s="13">
+      <c r="L63" s="13">
         <v>42648390</v>
       </c>
-      <c r="H63" s="13">
+      <c r="M63" s="13">
         <v>81890544</v>
       </c>
-      <c r="I63" s="13">
+      <c r="N63" s="13">
         <v>60404021</v>
       </c>
     </row>

--- a/database/industries/methanol/zagros/product/yearly.xlsx
+++ b/database/industries/methanol/zagros/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\zagros\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E61D975-8079-44CB-8D17-0AB6407F0D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E52204-1D0C-47CE-A155-FAE8980D2935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>زاگرس-پتروشیمی زاگرس</t>
@@ -35,21 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1391/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1395/12</t>
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1396/12</t>
@@ -565,16 +550,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N63"/>
+  <dimension ref="B1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -583,13 +568,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -600,13 +580,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -617,13 +592,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -632,13 +602,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -649,13 +614,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -666,13 +626,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -681,13 +636,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -708,23 +658,8 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -733,204 +668,124 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>4468407</v>
+        <v>6947609</v>
       </c>
       <c r="F10" s="9">
-        <v>4318424</v>
+        <v>6155314</v>
       </c>
       <c r="G10" s="9">
-        <v>5742176</v>
+        <v>5737584</v>
       </c>
       <c r="H10" s="9">
-        <v>6333533</v>
+        <v>6380734</v>
       </c>
       <c r="I10" s="9">
-        <v>7039618</v>
-      </c>
-      <c r="J10" s="9">
-        <v>6947609</v>
-      </c>
-      <c r="K10" s="9">
-        <v>6155314</v>
-      </c>
-      <c r="L10" s="9">
-        <v>5737584</v>
-      </c>
-      <c r="M10" s="9">
-        <v>6380734</v>
-      </c>
-      <c r="N10" s="9">
         <v>5474260</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>2003802</v>
+        <v>3118778</v>
       </c>
       <c r="F11" s="11">
-        <v>1940353</v>
+        <v>2901071</v>
       </c>
       <c r="G11" s="11">
-        <v>2688241</v>
+        <v>2737744</v>
       </c>
       <c r="H11" s="11">
-        <v>2900327</v>
+        <v>3015057</v>
       </c>
       <c r="I11" s="11">
-        <v>3204653</v>
-      </c>
-      <c r="J11" s="11">
-        <v>3118778</v>
-      </c>
-      <c r="K11" s="11">
-        <v>2901071</v>
-      </c>
-      <c r="L11" s="11">
-        <v>2737744</v>
-      </c>
-      <c r="M11" s="11">
-        <v>3015057</v>
-      </c>
-      <c r="N11" s="11">
         <v>2514088</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>6472209</v>
+        <v>10066387</v>
       </c>
       <c r="F14" s="13">
-        <v>6258777</v>
+        <v>9056385</v>
       </c>
       <c r="G14" s="13">
-        <v>8430417</v>
+        <v>8475328</v>
       </c>
       <c r="H14" s="13">
-        <v>9233860</v>
+        <v>9395791</v>
       </c>
       <c r="I14" s="13">
-        <v>10244271</v>
-      </c>
-      <c r="J14" s="13">
-        <v>10066387</v>
-      </c>
-      <c r="K14" s="13">
-        <v>9056385</v>
-      </c>
-      <c r="L14" s="13">
-        <v>8475328</v>
-      </c>
-      <c r="M14" s="13">
-        <v>9395791</v>
-      </c>
-      <c r="N14" s="13">
         <v>7988348</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -939,13 +794,8 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -954,13 +804,8 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -969,15 +814,10 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -996,23 +836,8 @@
       <c r="I18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1021,204 +846,124 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>617599</v>
+        <v>1912999</v>
       </c>
       <c r="F20" s="9">
-        <v>571859</v>
+        <v>1934147</v>
       </c>
       <c r="G20" s="9">
-        <v>784653</v>
+        <v>1215060</v>
       </c>
       <c r="H20" s="9">
-        <v>984520</v>
+        <v>1258274</v>
       </c>
       <c r="I20" s="9">
-        <v>1487268</v>
-      </c>
-      <c r="J20" s="9">
-        <v>1912999</v>
-      </c>
-      <c r="K20" s="9">
-        <v>1934147</v>
-      </c>
-      <c r="L20" s="9">
-        <v>1215060</v>
-      </c>
-      <c r="M20" s="9">
-        <v>1258274</v>
-      </c>
-      <c r="N20" s="9">
         <v>990671</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>2052538</v>
+        <v>3106130</v>
       </c>
       <c r="F22" s="9">
-        <v>1887578</v>
+        <v>2867922</v>
       </c>
       <c r="G22" s="9">
-        <v>2733569</v>
+        <v>2818603</v>
       </c>
       <c r="H22" s="9">
-        <v>2863035</v>
+        <v>3015422</v>
       </c>
       <c r="I22" s="9">
-        <v>3211354</v>
-      </c>
-      <c r="J22" s="9">
-        <v>3106130</v>
-      </c>
-      <c r="K22" s="9">
-        <v>2867922</v>
-      </c>
-      <c r="L22" s="9">
-        <v>2818603</v>
-      </c>
-      <c r="M22" s="9">
-        <v>3015422</v>
-      </c>
-      <c r="N22" s="9">
         <v>2447957</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
-      </c>
-      <c r="L23" s="11">
-        <v>0</v>
-      </c>
-      <c r="M23" s="11">
-        <v>0</v>
-      </c>
-      <c r="N23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>2670137</v>
+        <v>5019129</v>
       </c>
       <c r="F24" s="13">
-        <v>2459437</v>
+        <v>4802069</v>
       </c>
       <c r="G24" s="13">
-        <v>3518222</v>
+        <v>4033663</v>
       </c>
       <c r="H24" s="13">
-        <v>3847555</v>
+        <v>4273696</v>
       </c>
       <c r="I24" s="13">
-        <v>4698622</v>
-      </c>
-      <c r="J24" s="13">
-        <v>5019129</v>
-      </c>
-      <c r="K24" s="13">
-        <v>4802069</v>
-      </c>
-      <c r="L24" s="13">
-        <v>4033663</v>
-      </c>
-      <c r="M24" s="13">
-        <v>4273696</v>
-      </c>
-      <c r="N24" s="13">
         <v>3438628</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1227,13 +972,8 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1242,13 +982,8 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1257,15 +992,10 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1284,23 +1014,8 @@
       <c r="I28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1309,206 +1024,126 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
-        <v>52743</v>
+        <v>693094</v>
       </c>
       <c r="F30" s="9">
-        <v>98940</v>
+        <v>858992</v>
       </c>
       <c r="G30" s="9">
-        <v>144694</v>
+        <v>816677</v>
       </c>
       <c r="H30" s="9">
-        <v>306754</v>
+        <v>1008158</v>
       </c>
       <c r="I30" s="9">
-        <v>492223</v>
-      </c>
-      <c r="J30" s="9">
-        <v>693094</v>
-      </c>
-      <c r="K30" s="9">
-        <v>858992</v>
-      </c>
-      <c r="L30" s="9">
-        <v>816677</v>
-      </c>
-      <c r="M30" s="9">
-        <v>1008158</v>
-      </c>
-      <c r="N30" s="9">
         <v>793747</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="11">
-        <v>0</v>
-      </c>
-      <c r="L31" s="11">
-        <v>0</v>
-      </c>
-      <c r="M31" s="11">
-        <v>0</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9">
-        <v>20291190</v>
+        <v>43644455</v>
       </c>
       <c r="F32" s="9">
-        <v>23956448</v>
+        <v>72986441</v>
       </c>
       <c r="G32" s="9">
-        <v>28969240</v>
+        <v>77215271</v>
       </c>
       <c r="H32" s="9">
-        <v>25636936</v>
+        <v>142226610</v>
       </c>
       <c r="I32" s="9">
-        <v>31428618</v>
-      </c>
-      <c r="J32" s="9">
-        <v>43644455</v>
-      </c>
-      <c r="K32" s="9">
-        <v>72986441</v>
-      </c>
-      <c r="L32" s="9">
-        <v>77215271</v>
-      </c>
-      <c r="M32" s="9">
-        <v>142226610</v>
-      </c>
-      <c r="N32" s="9">
         <v>191834697</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" s="11">
-        <v>0</v>
-      </c>
-      <c r="L33" s="11">
-        <v>0</v>
-      </c>
-      <c r="M33" s="11">
-        <v>0</v>
-      </c>
-      <c r="N33" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>20343933</v>
+        <v>44337549</v>
       </c>
       <c r="F34" s="13">
-        <v>24055388</v>
+        <v>73845433</v>
       </c>
       <c r="G34" s="13">
-        <v>29113934</v>
+        <v>78031948</v>
       </c>
       <c r="H34" s="13">
-        <v>25943690</v>
+        <v>143234768</v>
       </c>
       <c r="I34" s="13">
-        <v>31920841</v>
-      </c>
-      <c r="J34" s="13">
-        <v>44337549</v>
-      </c>
-      <c r="K34" s="13">
-        <v>73845433</v>
-      </c>
-      <c r="L34" s="13">
-        <v>78031948</v>
-      </c>
-      <c r="M34" s="13">
-        <v>143234768</v>
-      </c>
-      <c r="N34" s="13">
         <v>192628444</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1517,13 +1152,8 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1532,13 +1162,8 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1547,15 +1172,10 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1574,23 +1194,8 @@
       <c r="I38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1599,169 +1204,104 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
-        <v>85400</v>
+        <v>362308</v>
       </c>
       <c r="F40" s="9">
-        <v>173015</v>
+        <v>444119</v>
       </c>
       <c r="G40" s="9">
-        <v>184405</v>
+        <v>672129</v>
       </c>
       <c r="H40" s="9">
-        <v>311577</v>
+        <v>801223</v>
       </c>
       <c r="I40" s="9">
-        <v>330958</v>
-      </c>
-      <c r="J40" s="9">
-        <v>362308</v>
-      </c>
-      <c r="K40" s="9">
-        <v>444119</v>
-      </c>
-      <c r="L40" s="9">
-        <v>672129</v>
-      </c>
-      <c r="M40" s="9">
-        <v>801223</v>
-      </c>
-      <c r="N40" s="9">
         <v>801222</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K41" s="11">
-        <v>0</v>
-      </c>
-      <c r="L41" s="11">
-        <v>0</v>
-      </c>
-      <c r="M41" s="11">
-        <v>0</v>
-      </c>
-      <c r="N41" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
-        <v>9885902</v>
+        <v>14051072</v>
       </c>
       <c r="F42" s="9">
-        <v>12691633</v>
+        <v>25449242</v>
       </c>
       <c r="G42" s="9">
-        <v>10597589</v>
+        <v>27394873</v>
       </c>
       <c r="H42" s="9">
-        <v>8954461</v>
+        <v>47166403</v>
       </c>
       <c r="I42" s="9">
-        <v>9786719</v>
-      </c>
-      <c r="J42" s="9">
-        <v>14051072</v>
-      </c>
-      <c r="K42" s="9">
-        <v>25449242</v>
-      </c>
-      <c r="L42" s="9">
-        <v>27394873</v>
-      </c>
-      <c r="M42" s="9">
-        <v>47166403</v>
-      </c>
-      <c r="N42" s="9">
         <v>78365223</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K43" s="11">
-        <v>0</v>
-      </c>
-      <c r="L43" s="11">
-        <v>0</v>
-      </c>
-      <c r="M43" s="11">
-        <v>0</v>
-      </c>
-      <c r="N43" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1770,13 +1310,8 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1785,13 +1320,8 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1800,15 +1330,10 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -1827,23 +1352,8 @@
       <c r="I47" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1852,171 +1362,106 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K49" s="9">
+        <v>14</v>
+      </c>
+      <c r="F49" s="9">
         <v>-91973</v>
       </c>
-      <c r="L49" s="9">
+      <c r="G49" s="9">
         <v>-85619</v>
       </c>
-      <c r="M49" s="9">
+      <c r="H49" s="9">
         <v>-107695</v>
       </c>
-      <c r="N49" s="9">
+      <c r="I49" s="9">
         <v>-146927</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K50" s="11">
-        <v>0</v>
-      </c>
-      <c r="L50" s="11">
-        <v>0</v>
-      </c>
-      <c r="M50" s="11">
-        <v>0</v>
-      </c>
-      <c r="N50" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K51" s="9">
+        <v>14</v>
+      </c>
+      <c r="F51" s="9">
         <v>-29741217</v>
       </c>
-      <c r="L51" s="9">
+      <c r="G51" s="9">
         <v>-35297939</v>
       </c>
-      <c r="M51" s="9">
+      <c r="H51" s="9">
         <v>-61236529</v>
       </c>
-      <c r="N51" s="9">
+      <c r="I51" s="9">
         <v>-132077496</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K52" s="11">
-        <v>0</v>
-      </c>
-      <c r="L52" s="11">
-        <v>0</v>
-      </c>
-      <c r="M52" s="11">
-        <v>0</v>
-      </c>
-      <c r="N52" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -2024,34 +1469,19 @@
         <v>0</v>
       </c>
       <c r="F53" s="13">
-        <v>0</v>
+        <v>-29833190</v>
       </c>
       <c r="G53" s="13">
-        <v>0</v>
+        <v>-35383558</v>
       </c>
       <c r="H53" s="13">
-        <v>0</v>
+        <v>-61344224</v>
       </c>
       <c r="I53" s="13">
-        <v>0</v>
-      </c>
-      <c r="J53" s="13">
-        <v>0</v>
-      </c>
-      <c r="K53" s="13">
-        <v>-29833190</v>
-      </c>
-      <c r="L53" s="13">
-        <v>-35383558</v>
-      </c>
-      <c r="M53" s="13">
-        <v>-61344224</v>
-      </c>
-      <c r="N53" s="13">
         <v>-132224423</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2060,13 +1490,8 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2075,13 +1500,8 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2090,15 +1510,10 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -2117,23 +1532,8 @@
       <c r="I57" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J57" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M57" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N57" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2142,171 +1542,106 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K59" s="9">
+        <v>14</v>
+      </c>
+      <c r="F59" s="9">
         <v>767019</v>
       </c>
-      <c r="L59" s="9">
+      <c r="G59" s="9">
         <v>731058</v>
       </c>
-      <c r="M59" s="9">
+      <c r="H59" s="9">
         <v>900463</v>
       </c>
-      <c r="N59" s="9">
+      <c r="I59" s="9">
         <v>646820</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="G60" s="11">
+        <v>0</v>
+      </c>
+      <c r="H60" s="11">
+        <v>0</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L60" s="11">
-        <v>0</v>
-      </c>
-      <c r="M60" s="11">
-        <v>0</v>
-      </c>
-      <c r="N60" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K61" s="9">
+        <v>14</v>
+      </c>
+      <c r="F61" s="9">
         <v>43245224</v>
       </c>
-      <c r="L61" s="9">
+      <c r="G61" s="9">
         <v>41917332</v>
       </c>
-      <c r="M61" s="9">
+      <c r="H61" s="9">
         <v>80990081</v>
       </c>
-      <c r="N61" s="9">
+      <c r="I61" s="9">
         <v>59757201</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K62" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L62" s="11">
-        <v>0</v>
-      </c>
-      <c r="M62" s="11">
-        <v>0</v>
-      </c>
-      <c r="N62" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="G62" s="11">
+        <v>0</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0</v>
+      </c>
+      <c r="I62" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -2314,30 +1649,15 @@
         <v>0</v>
       </c>
       <c r="F63" s="13">
-        <v>0</v>
+        <v>44012243</v>
       </c>
       <c r="G63" s="13">
-        <v>0</v>
+        <v>42648390</v>
       </c>
       <c r="H63" s="13">
-        <v>0</v>
+        <v>81890544</v>
       </c>
       <c r="I63" s="13">
-        <v>0</v>
-      </c>
-      <c r="J63" s="13">
-        <v>0</v>
-      </c>
-      <c r="K63" s="13">
-        <v>44012243</v>
-      </c>
-      <c r="L63" s="13">
-        <v>42648390</v>
-      </c>
-      <c r="M63" s="13">
-        <v>81890544</v>
-      </c>
-      <c r="N63" s="13">
         <v>60404021</v>
       </c>
     </row>

--- a/database/industries/methanol/zagros/product/yearly.xlsx
+++ b/database/industries/methanol/zagros/product/yearly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E52204-1D0C-47CE-A155-FAE8980D2935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA72CBDF-245C-47DC-AEA3-F383E886BF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="28">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>بخار</t>
   </si>
   <si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>ریال / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -554,12 +557,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -569,7 +572,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -581,7 +584,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -593,7 +596,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -603,7 +606,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -615,7 +618,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -627,7 +630,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -637,7 +640,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -659,7 +662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -669,7 +672,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -678,22 +681,22 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>6947609</v>
+        <v>6155314</v>
       </c>
       <c r="F10" s="9">
-        <v>6155314</v>
+        <v>5737584</v>
       </c>
       <c r="G10" s="9">
-        <v>5737584</v>
+        <v>6380734</v>
       </c>
       <c r="H10" s="9">
-        <v>6380734</v>
+        <v>5474260</v>
       </c>
       <c r="I10" s="9">
-        <v>5474260</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5356286</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -702,22 +705,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>3118778</v>
+        <v>2901071</v>
       </c>
       <c r="F11" s="11">
-        <v>2901071</v>
+        <v>2737744</v>
       </c>
       <c r="G11" s="11">
-        <v>2737744</v>
+        <v>3015057</v>
       </c>
       <c r="H11" s="11">
-        <v>3015057</v>
+        <v>2514088</v>
       </c>
       <c r="I11" s="11">
-        <v>2514088</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2488052</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -732,14 +735,14 @@
       <c r="G12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>14</v>
+      <c r="H12" s="9">
+        <v>0</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -753,39 +756,39 @@
       <c r="F13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>10066387</v>
+        <v>9056385</v>
       </c>
       <c r="F14" s="13">
-        <v>9056385</v>
+        <v>8475328</v>
       </c>
       <c r="G14" s="13">
-        <v>8475328</v>
+        <v>9395791</v>
       </c>
       <c r="H14" s="13">
-        <v>9395791</v>
+        <v>7988348</v>
       </c>
       <c r="I14" s="13">
-        <v>7988348</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7844338</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -795,7 +798,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -805,7 +808,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -815,7 +818,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>17</v>
       </c>
@@ -837,7 +840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -847,7 +850,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>10</v>
       </c>
@@ -856,22 +859,22 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>1912999</v>
+        <v>1934147</v>
       </c>
       <c r="F20" s="9">
-        <v>1934147</v>
+        <v>1215060</v>
       </c>
       <c r="G20" s="9">
-        <v>1215060</v>
+        <v>1258274</v>
       </c>
       <c r="H20" s="9">
-        <v>1258274</v>
+        <v>990671</v>
       </c>
       <c r="I20" s="9">
-        <v>990671</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>908083</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
@@ -879,8 +882,8 @@
         <v>19</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>14</v>
+      <c r="E21" s="11">
+        <v>0</v>
       </c>
       <c r="F21" s="11">
         <v>0</v>
@@ -888,14 +891,14 @@
       <c r="G21" s="11">
         <v>0</v>
       </c>
-      <c r="H21" s="11">
-        <v>0</v>
+      <c r="H21" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>12</v>
       </c>
@@ -904,29 +907,29 @@
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>3106130</v>
+        <v>2867922</v>
       </c>
       <c r="F22" s="9">
-        <v>2867922</v>
+        <v>2818603</v>
       </c>
       <c r="G22" s="9">
-        <v>2818603</v>
+        <v>3015422</v>
       </c>
       <c r="H22" s="9">
-        <v>3015422</v>
+        <v>2447957</v>
       </c>
       <c r="I22" s="9">
-        <v>2447957</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2460139</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
-        <v>14</v>
+      <c r="E23" s="11">
+        <v>0</v>
       </c>
       <c r="F23" s="11">
         <v>0</v>
@@ -941,29 +944,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>5019129</v>
+        <v>4802069</v>
       </c>
       <c r="F24" s="13">
-        <v>4802069</v>
+        <v>4033663</v>
       </c>
       <c r="G24" s="13">
-        <v>4033663</v>
+        <v>4273696</v>
       </c>
       <c r="H24" s="13">
-        <v>4273696</v>
+        <v>3438628</v>
       </c>
       <c r="I24" s="13">
-        <v>3438628</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3368222</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -973,7 +976,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -983,7 +986,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -993,7 +996,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>20</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1025,7 +1028,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>10</v>
       </c>
@@ -1034,22 +1037,22 @@
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
-        <v>693094</v>
+        <v>858992</v>
       </c>
       <c r="F30" s="9">
-        <v>858992</v>
+        <v>816677</v>
       </c>
       <c r="G30" s="9">
-        <v>816677</v>
+        <v>1008158</v>
       </c>
       <c r="H30" s="9">
-        <v>1008158</v>
+        <v>793747</v>
       </c>
       <c r="I30" s="9">
-        <v>793747</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1637046</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>18</v>
       </c>
@@ -1057,8 +1060,8 @@
         <v>21</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
-        <v>14</v>
+      <c r="E31" s="11">
+        <v>0</v>
       </c>
       <c r="F31" s="11">
         <v>0</v>
@@ -1066,14 +1069,14 @@
       <c r="G31" s="11">
         <v>0</v>
       </c>
-      <c r="H31" s="11">
-        <v>0</v>
+      <c r="H31" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>12</v>
       </c>
@@ -1082,22 +1085,22 @@
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9">
-        <v>43644455</v>
+        <v>72986441</v>
       </c>
       <c r="F32" s="9">
-        <v>72986441</v>
+        <v>77215271</v>
       </c>
       <c r="G32" s="9">
-        <v>77215271</v>
+        <v>142226610</v>
       </c>
       <c r="H32" s="9">
-        <v>142226610</v>
+        <v>191834697</v>
       </c>
       <c r="I32" s="9">
-        <v>191834697</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>212576560</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>13</v>
       </c>
@@ -1105,8 +1108,8 @@
         <v>21</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
-        <v>14</v>
+      <c r="E33" s="11">
+        <v>0</v>
       </c>
       <c r="F33" s="11">
         <v>0</v>
@@ -1121,29 +1124,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>44337549</v>
+        <v>73845433</v>
       </c>
       <c r="F34" s="13">
-        <v>73845433</v>
+        <v>78031948</v>
       </c>
       <c r="G34" s="13">
-        <v>78031948</v>
+        <v>143234768</v>
       </c>
       <c r="H34" s="13">
-        <v>143234768</v>
+        <v>192628444</v>
       </c>
       <c r="I34" s="13">
-        <v>192628444</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>214213606</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1153,7 +1156,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1163,7 +1166,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1173,7 +1176,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>22</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1205,7 +1208,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>10</v>
       </c>
@@ -1214,22 +1217,22 @@
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
-        <v>362308</v>
+        <v>444119</v>
       </c>
       <c r="F40" s="9">
-        <v>444119</v>
+        <v>672129</v>
       </c>
       <c r="G40" s="9">
-        <v>672129</v>
+        <v>801223</v>
       </c>
       <c r="H40" s="9">
-        <v>801223</v>
+        <v>801222</v>
       </c>
       <c r="I40" s="9">
-        <v>801222</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1802749</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>18</v>
       </c>
@@ -1237,8 +1240,8 @@
         <v>24</v>
       </c>
       <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
-        <v>14</v>
+      <c r="E41" s="11">
+        <v>0</v>
       </c>
       <c r="F41" s="11">
         <v>0</v>
@@ -1246,14 +1249,14 @@
       <c r="G41" s="11">
         <v>0</v>
       </c>
-      <c r="H41" s="11">
-        <v>0</v>
+      <c r="H41" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I41" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>12</v>
       </c>
@@ -1262,31 +1265,31 @@
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
-        <v>14051072</v>
+        <v>25449242</v>
       </c>
       <c r="F42" s="9">
-        <v>25449242</v>
+        <v>27394873</v>
       </c>
       <c r="G42" s="9">
-        <v>27394873</v>
+        <v>47166403</v>
       </c>
       <c r="H42" s="9">
-        <v>47166403</v>
+        <v>78365223</v>
       </c>
       <c r="I42" s="9">
-        <v>78365223</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>86408353</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>14</v>
+      <c r="E43" s="11">
+        <v>0</v>
       </c>
       <c r="F43" s="11">
         <v>0</v>
@@ -1301,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1311,7 +1314,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1321,7 +1324,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1331,9 +1334,9 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -1353,7 +1356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1363,7 +1366,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>10</v>
       </c>
@@ -1371,23 +1374,23 @@
         <v>21</v>
       </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
-        <v>14</v>
+      <c r="E49" s="9">
+        <v>-91973</v>
       </c>
       <c r="F49" s="9">
-        <v>-91973</v>
+        <v>-85619</v>
       </c>
       <c r="G49" s="9">
-        <v>-85619</v>
+        <v>-107695</v>
       </c>
       <c r="H49" s="9">
-        <v>-107695</v>
+        <v>-146927</v>
       </c>
       <c r="I49" s="9">
-        <v>-146927</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-197170</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>18</v>
       </c>
@@ -1395,8 +1398,8 @@
         <v>21</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>14</v>
+      <c r="E50" s="11">
+        <v>0</v>
       </c>
       <c r="F50" s="11">
         <v>0</v>
@@ -1404,14 +1407,14 @@
       <c r="G50" s="11">
         <v>0</v>
       </c>
-      <c r="H50" s="11">
-        <v>0</v>
+      <c r="H50" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>12</v>
       </c>
@@ -1419,23 +1422,23 @@
         <v>21</v>
       </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
-        <v>14</v>
+      <c r="E51" s="9">
+        <v>-29741217</v>
       </c>
       <c r="F51" s="9">
-        <v>-29741217</v>
+        <v>-35297939</v>
       </c>
       <c r="G51" s="9">
-        <v>-35297939</v>
+        <v>-61236529</v>
       </c>
       <c r="H51" s="9">
-        <v>-61236529</v>
+        <v>-132077496</v>
       </c>
       <c r="I51" s="9">
-        <v>-132077496</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-147153440</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>13</v>
       </c>
@@ -1443,8 +1446,8 @@
         <v>21</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>14</v>
+      <c r="E52" s="11">
+        <v>0</v>
       </c>
       <c r="F52" s="11">
         <v>0</v>
@@ -1459,29 +1462,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
-        <v>0</v>
+        <v>-29833190</v>
       </c>
       <c r="F53" s="13">
-        <v>-29833190</v>
+        <v>-35383558</v>
       </c>
       <c r="G53" s="13">
-        <v>-35383558</v>
+        <v>-61344224</v>
       </c>
       <c r="H53" s="13">
-        <v>-61344224</v>
+        <v>-132224423</v>
       </c>
       <c r="I53" s="13">
-        <v>-132224423</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-147350610</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1491,7 +1494,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1501,7 +1504,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1511,9 +1514,9 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1533,7 +1536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1543,7 +1546,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>10</v>
       </c>
@@ -1551,23 +1554,23 @@
         <v>21</v>
       </c>
       <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
-        <v>14</v>
+      <c r="E59" s="9">
+        <v>767019</v>
       </c>
       <c r="F59" s="9">
-        <v>767019</v>
+        <v>731058</v>
       </c>
       <c r="G59" s="9">
-        <v>731058</v>
+        <v>900463</v>
       </c>
       <c r="H59" s="9">
-        <v>900463</v>
+        <v>646820</v>
       </c>
       <c r="I59" s="9">
-        <v>646820</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1439876</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>18</v>
       </c>
@@ -1578,20 +1581,20 @@
       <c r="E60" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="11" t="s">
-        <v>14</v>
+      <c r="F60" s="11">
+        <v>0</v>
       </c>
       <c r="G60" s="11">
         <v>0</v>
       </c>
-      <c r="H60" s="11">
-        <v>0</v>
+      <c r="H60" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I60" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>12</v>
       </c>
@@ -1599,23 +1602,23 @@
         <v>21</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>14</v>
+      <c r="E61" s="9">
+        <v>43245224</v>
       </c>
       <c r="F61" s="9">
-        <v>43245224</v>
+        <v>41917332</v>
       </c>
       <c r="G61" s="9">
-        <v>41917332</v>
+        <v>80990081</v>
       </c>
       <c r="H61" s="9">
-        <v>80990081</v>
+        <v>59757201</v>
       </c>
       <c r="I61" s="9">
-        <v>59757201</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>65423120</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>13</v>
       </c>
@@ -1626,8 +1629,8 @@
       <c r="E62" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F62" s="11" t="s">
-        <v>14</v>
+      <c r="F62" s="11">
+        <v>0</v>
       </c>
       <c r="G62" s="11">
         <v>0</v>
@@ -1639,26 +1642,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13">
-        <v>0</v>
+        <v>44012243</v>
       </c>
       <c r="F63" s="13">
-        <v>44012243</v>
+        <v>42648390</v>
       </c>
       <c r="G63" s="13">
-        <v>42648390</v>
+        <v>81890544</v>
       </c>
       <c r="H63" s="13">
-        <v>81890544</v>
+        <v>60404021</v>
       </c>
       <c r="I63" s="13">
-        <v>60404021</v>
+        <v>66862996</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/methanol/zagros/product/yearly.xlsx
+++ b/database/industries/methanol/zagros/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\methanol\zagros\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A36B658-F842-49A8-979D-AD94DAB5B2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5BC684-1A46-493D-84A8-E68AEDC3BD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="18204" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="27">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,21 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1395/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -107,9 +92,6 @@
   </si>
   <si>
     <t>تن / ریال</t>
-  </si>
-  <si>
-    <t>/ ریال</t>
   </si>
   <si>
     <t>ریال / ریال</t>
@@ -568,16 +550,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N69"/>
+  <dimension ref="B1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -586,13 +568,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -603,13 +580,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -620,13 +592,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -635,13 +602,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -652,13 +614,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -669,13 +626,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -684,13 +636,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -711,23 +658,8 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -736,13 +668,8 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -751,204 +678,124 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>1940353</v>
+        <v>2901071</v>
       </c>
       <c r="F11" s="11">
-        <v>2688241</v>
+        <v>2737744</v>
       </c>
       <c r="G11" s="11">
-        <v>2900327</v>
+        <v>3015057</v>
       </c>
       <c r="H11" s="11">
-        <v>3204653</v>
+        <v>2514088</v>
       </c>
       <c r="I11" s="11">
-        <v>3118778</v>
-      </c>
-      <c r="J11" s="11">
-        <v>2901071</v>
-      </c>
-      <c r="K11" s="11">
-        <v>2737744</v>
-      </c>
-      <c r="L11" s="11">
-        <v>3015057</v>
-      </c>
-      <c r="M11" s="11">
-        <v>2514088</v>
-      </c>
-      <c r="N11" s="11">
         <v>2488052</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>4318424</v>
+        <v>6155314</v>
       </c>
       <c r="F12" s="9">
-        <v>5742176</v>
+        <v>5737584</v>
       </c>
       <c r="G12" s="9">
-        <v>6333533</v>
+        <v>6380734</v>
       </c>
       <c r="H12" s="9">
-        <v>7039618</v>
+        <v>5474260</v>
       </c>
       <c r="I12" s="9">
-        <v>6947609</v>
-      </c>
-      <c r="J12" s="9">
-        <v>6155314</v>
-      </c>
-      <c r="K12" s="9">
-        <v>5737584</v>
-      </c>
-      <c r="L12" s="9">
-        <v>6380734</v>
-      </c>
-      <c r="M12" s="9">
-        <v>5474260</v>
-      </c>
-      <c r="N12" s="9">
         <v>5356286</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>6258777</v>
+        <v>9056385</v>
       </c>
       <c r="F15" s="13">
-        <v>8430417</v>
+        <v>8475328</v>
       </c>
       <c r="G15" s="13">
-        <v>9233860</v>
+        <v>9395791</v>
       </c>
       <c r="H15" s="13">
-        <v>10244271</v>
+        <v>7988348</v>
       </c>
       <c r="I15" s="13">
-        <v>10066387</v>
-      </c>
-      <c r="J15" s="13">
-        <v>9056385</v>
-      </c>
-      <c r="K15" s="13">
-        <v>8475328</v>
-      </c>
-      <c r="L15" s="13">
-        <v>9395791</v>
-      </c>
-      <c r="M15" s="13">
-        <v>7988348</v>
-      </c>
-      <c r="N15" s="13">
         <v>7844338</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -957,13 +804,8 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -972,13 +814,8 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -987,15 +824,10 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1014,23 +846,8 @@
       <c r="I19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1039,13 +856,8 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1054,204 +866,124 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11">
-        <v>1887578</v>
+        <v>2867922</v>
       </c>
       <c r="F22" s="11">
-        <v>2733569</v>
+        <v>2818603</v>
       </c>
       <c r="G22" s="11">
-        <v>2863035</v>
+        <v>3015422</v>
       </c>
       <c r="H22" s="11">
-        <v>3211354</v>
+        <v>2447957</v>
       </c>
       <c r="I22" s="11">
-        <v>3106130</v>
-      </c>
-      <c r="J22" s="11">
-        <v>2867922</v>
-      </c>
-      <c r="K22" s="11">
-        <v>2818603</v>
-      </c>
-      <c r="L22" s="11">
-        <v>3015422</v>
-      </c>
-      <c r="M22" s="11">
-        <v>2447957</v>
-      </c>
-      <c r="N22" s="11">
         <v>2460139</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9">
-        <v>571859</v>
+        <v>1934147</v>
       </c>
       <c r="F23" s="9">
-        <v>784653</v>
+        <v>1215060</v>
       </c>
       <c r="G23" s="9">
-        <v>984520</v>
+        <v>1258274</v>
       </c>
       <c r="H23" s="9">
-        <v>1487268</v>
+        <v>990671</v>
       </c>
       <c r="I23" s="9">
-        <v>1912999</v>
-      </c>
-      <c r="J23" s="9">
-        <v>1934147</v>
-      </c>
-      <c r="K23" s="9">
-        <v>1215060</v>
-      </c>
-      <c r="L23" s="9">
-        <v>1258274</v>
-      </c>
-      <c r="M23" s="9">
-        <v>990671</v>
-      </c>
-      <c r="N23" s="9">
         <v>908083</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="11">
-        <v>0</v>
-      </c>
-      <c r="K24" s="11">
-        <v>0</v>
-      </c>
-      <c r="L24" s="11">
-        <v>0</v>
-      </c>
-      <c r="M24" s="11">
-        <v>0</v>
-      </c>
-      <c r="N24" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>19</v>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0</v>
-      </c>
-      <c r="K25" s="9">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13">
-        <v>2459437</v>
+        <v>4802069</v>
       </c>
       <c r="F26" s="13">
-        <v>3518222</v>
+        <v>4033663</v>
       </c>
       <c r="G26" s="13">
-        <v>3847555</v>
+        <v>4273696</v>
       </c>
       <c r="H26" s="13">
-        <v>4698622</v>
+        <v>3438628</v>
       </c>
       <c r="I26" s="13">
-        <v>5019129</v>
-      </c>
-      <c r="J26" s="13">
-        <v>4802069</v>
-      </c>
-      <c r="K26" s="13">
-        <v>4033663</v>
-      </c>
-      <c r="L26" s="13">
-        <v>4273696</v>
-      </c>
-      <c r="M26" s="13">
-        <v>3438628</v>
-      </c>
-      <c r="N26" s="13">
         <v>3368222</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1260,13 +992,8 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1275,13 +1002,8 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1290,15 +1012,10 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1317,23 +1034,8 @@
       <c r="I30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1342,13 +1044,8 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1357,206 +1054,126 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>23956448</v>
+        <v>72986441</v>
       </c>
       <c r="F33" s="11">
-        <v>28969240</v>
+        <v>77215271</v>
       </c>
       <c r="G33" s="11">
-        <v>25636936</v>
+        <v>142226610</v>
       </c>
       <c r="H33" s="11">
-        <v>31428618</v>
+        <v>191834697</v>
       </c>
       <c r="I33" s="11">
-        <v>43644455</v>
-      </c>
-      <c r="J33" s="11">
-        <v>72986441</v>
-      </c>
-      <c r="K33" s="11">
-        <v>77215271</v>
-      </c>
-      <c r="L33" s="11">
-        <v>142226610</v>
-      </c>
-      <c r="M33" s="11">
-        <v>191834697</v>
-      </c>
-      <c r="N33" s="11">
         <v>212576560</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9">
-        <v>98940</v>
+        <v>858992</v>
       </c>
       <c r="F34" s="9">
-        <v>144694</v>
+        <v>816677</v>
       </c>
       <c r="G34" s="9">
-        <v>306754</v>
+        <v>1008158</v>
       </c>
       <c r="H34" s="9">
-        <v>492223</v>
+        <v>793747</v>
       </c>
       <c r="I34" s="9">
-        <v>693094</v>
-      </c>
-      <c r="J34" s="9">
-        <v>858992</v>
-      </c>
-      <c r="K34" s="9">
-        <v>816677</v>
-      </c>
-      <c r="L34" s="9">
-        <v>1008158</v>
-      </c>
-      <c r="M34" s="9">
-        <v>793747</v>
-      </c>
-      <c r="N34" s="9">
         <v>1637046</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="11">
-        <v>0</v>
-      </c>
-      <c r="K35" s="11">
-        <v>0</v>
-      </c>
-      <c r="L35" s="11">
-        <v>0</v>
-      </c>
-      <c r="M35" s="11">
-        <v>0</v>
-      </c>
-      <c r="N35" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="C36" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>19</v>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="9">
-        <v>0</v>
-      </c>
-      <c r="K36" s="9">
-        <v>0</v>
-      </c>
-      <c r="L36" s="9">
-        <v>0</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>24055388</v>
+        <v>73845433</v>
       </c>
       <c r="F37" s="13">
-        <v>29113934</v>
+        <v>78031948</v>
       </c>
       <c r="G37" s="13">
-        <v>25943690</v>
+        <v>143234768</v>
       </c>
       <c r="H37" s="13">
-        <v>31920841</v>
+        <v>192628444</v>
       </c>
       <c r="I37" s="13">
-        <v>44337549</v>
-      </c>
-      <c r="J37" s="13">
-        <v>73845433</v>
-      </c>
-      <c r="K37" s="13">
-        <v>78031948</v>
-      </c>
-      <c r="L37" s="13">
-        <v>143234768</v>
-      </c>
-      <c r="M37" s="13">
-        <v>192628444</v>
-      </c>
-      <c r="N37" s="13">
         <v>214213606</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1565,13 +1182,8 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1580,13 +1192,8 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1595,15 +1202,10 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1622,23 +1224,8 @@
       <c r="I41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1647,13 +1234,8 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -1662,169 +1244,104 @@
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>12691633</v>
+        <v>25449242</v>
       </c>
       <c r="F44" s="11">
-        <v>10597589</v>
+        <v>27394873</v>
       </c>
       <c r="G44" s="11">
-        <v>8954461</v>
+        <v>47166403</v>
       </c>
       <c r="H44" s="11">
-        <v>9786719</v>
+        <v>78365223</v>
       </c>
       <c r="I44" s="11">
-        <v>14051072</v>
-      </c>
-      <c r="J44" s="11">
-        <v>25449242</v>
-      </c>
-      <c r="K44" s="11">
-        <v>27394873</v>
-      </c>
-      <c r="L44" s="11">
-        <v>47166403</v>
-      </c>
-      <c r="M44" s="11">
-        <v>78365223</v>
-      </c>
-      <c r="N44" s="11">
         <v>86408353</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
-        <v>173015</v>
+        <v>444119</v>
       </c>
       <c r="F45" s="9">
-        <v>184405</v>
+        <v>672129</v>
       </c>
       <c r="G45" s="9">
-        <v>311577</v>
+        <v>801223</v>
       </c>
       <c r="H45" s="9">
-        <v>330958</v>
+        <v>801222</v>
       </c>
       <c r="I45" s="9">
-        <v>362308</v>
-      </c>
-      <c r="J45" s="9">
-        <v>444119</v>
-      </c>
-      <c r="K45" s="9">
-        <v>672129</v>
-      </c>
-      <c r="L45" s="9">
-        <v>801223</v>
-      </c>
-      <c r="M45" s="9">
-        <v>801222</v>
-      </c>
-      <c r="N45" s="9">
         <v>1802749</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-      <c r="N46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B47" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="C47" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>19</v>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9">
+        <v>0</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="9">
-        <v>0</v>
-      </c>
-      <c r="K47" s="9">
-        <v>0</v>
-      </c>
-      <c r="L47" s="9">
-        <v>0</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N47" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1833,13 +1350,8 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1848,13 +1360,8 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1863,15 +1370,10 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1890,23 +1392,8 @@
       <c r="I51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N51" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1915,13 +1402,8 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -1930,206 +1412,126 @@
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J54" s="11">
+      <c r="E54" s="11">
         <v>-29741217</v>
       </c>
-      <c r="K54" s="11">
+      <c r="F54" s="11">
         <v>-35297939</v>
       </c>
-      <c r="L54" s="11">
+      <c r="G54" s="11">
         <v>-61236529</v>
       </c>
-      <c r="M54" s="11">
+      <c r="H54" s="11">
         <v>-132077496</v>
       </c>
-      <c r="N54" s="11">
+      <c r="I54" s="11">
         <v>-144911417</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J55" s="9">
+      <c r="E55" s="9">
         <v>-91973</v>
       </c>
-      <c r="K55" s="9">
+      <c r="F55" s="9">
         <v>-85619</v>
       </c>
-      <c r="L55" s="9">
+      <c r="G55" s="9">
         <v>-107695</v>
       </c>
-      <c r="M55" s="9">
+      <c r="H55" s="9">
         <v>-146927</v>
       </c>
-      <c r="N55" s="9">
+      <c r="I55" s="9">
         <v>-197170</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>0</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J56" s="11">
-        <v>0</v>
-      </c>
-      <c r="K56" s="11">
-        <v>0</v>
-      </c>
-      <c r="L56" s="11">
-        <v>0</v>
-      </c>
-      <c r="M56" s="11">
-        <v>0</v>
-      </c>
-      <c r="N56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B57" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="C57" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>19</v>
+      <c r="E57" s="9">
+        <v>0</v>
+      </c>
+      <c r="F57" s="9">
+        <v>0</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57" s="9">
-        <v>0</v>
-      </c>
-      <c r="K57" s="9">
-        <v>0</v>
-      </c>
-      <c r="L57" s="9">
-        <v>0</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N57" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>0</v>
+        <v>-29833190</v>
       </c>
       <c r="F58" s="13">
-        <v>0</v>
+        <v>-35383558</v>
       </c>
       <c r="G58" s="13">
-        <v>0</v>
+        <v>-61344224</v>
       </c>
       <c r="H58" s="13">
-        <v>0</v>
+        <v>-132224423</v>
       </c>
       <c r="I58" s="13">
-        <v>0</v>
-      </c>
-      <c r="J58" s="13">
-        <v>-29833190</v>
-      </c>
-      <c r="K58" s="13">
-        <v>-35383558</v>
-      </c>
-      <c r="L58" s="13">
-        <v>-61344224</v>
-      </c>
-      <c r="M58" s="13">
-        <v>-132224423</v>
-      </c>
-      <c r="N58" s="13">
         <v>-145108587</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2138,13 +1540,8 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2153,13 +1550,8 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2168,15 +1560,10 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2195,23 +1582,8 @@
       <c r="I62" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J62" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L62" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2220,13 +1592,8 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -2235,202 +1602,122 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J65" s="11">
+      <c r="E65" s="11">
         <v>43245224</v>
       </c>
-      <c r="K65" s="11">
+      <c r="F65" s="11">
         <v>41917332</v>
       </c>
-      <c r="L65" s="11">
+      <c r="G65" s="11">
         <v>80990081</v>
       </c>
-      <c r="M65" s="11">
+      <c r="H65" s="11">
         <v>59757201</v>
       </c>
-      <c r="N65" s="11">
+      <c r="I65" s="11">
         <v>67665143</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J66" s="9">
+      <c r="E66" s="9">
         <v>767019</v>
       </c>
-      <c r="K66" s="9">
+      <c r="F66" s="9">
         <v>731058</v>
       </c>
-      <c r="L66" s="9">
+      <c r="G66" s="9">
         <v>900463</v>
       </c>
-      <c r="M66" s="9">
+      <c r="H66" s="9">
         <v>646820</v>
       </c>
-      <c r="N66" s="9">
+      <c r="I66" s="9">
         <v>1439876</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J67" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K67" s="11">
-        <v>0</v>
-      </c>
-      <c r="L67" s="11">
-        <v>0</v>
-      </c>
-      <c r="M67" s="11">
-        <v>0</v>
-      </c>
-      <c r="N67" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F67" s="11">
+        <v>0</v>
+      </c>
+      <c r="G67" s="11">
+        <v>0</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0</v>
+      </c>
+      <c r="I67" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F68" s="9">
+        <v>0</v>
+      </c>
+      <c r="G68" s="9">
+        <v>0</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K68" s="9">
-        <v>0</v>
-      </c>
-      <c r="L68" s="9">
-        <v>0</v>
-      </c>
-      <c r="M68" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N68" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13">
-        <v>0</v>
+        <v>44012243</v>
       </c>
       <c r="F69" s="13">
-        <v>0</v>
+        <v>42648390</v>
       </c>
       <c r="G69" s="13">
-        <v>0</v>
+        <v>81890544</v>
       </c>
       <c r="H69" s="13">
-        <v>0</v>
+        <v>60404021</v>
       </c>
       <c r="I69" s="13">
-        <v>0</v>
-      </c>
-      <c r="J69" s="13">
-        <v>44012243</v>
-      </c>
-      <c r="K69" s="13">
-        <v>42648390</v>
-      </c>
-      <c r="L69" s="13">
-        <v>81890544</v>
-      </c>
-      <c r="M69" s="13">
-        <v>60404021</v>
-      </c>
-      <c r="N69" s="13">
         <v>69105019</v>
       </c>
     </row>
